--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-21/Sample-21.xlsx
@@ -144,14 +144,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="oagndlym" xfId="1"/>
-    <cellStyle name="oagndlym_Alternate" xfId="2"/>
-    <cellStyle name="wvap1pdq" xfId="3"/>
-    <cellStyle name="wvap1pdq_Alternate" xfId="4"/>
-    <cellStyle name="oekcbu5m" xfId="5"/>
-    <cellStyle name="oekcbu5m_Alternate" xfId="6"/>
-    <cellStyle name="g5gywnus" xfId="7"/>
-    <cellStyle name="g5gywnus_Alternate" xfId="8"/>
+    <cellStyle name="jaopqgyg" xfId="1"/>
+    <cellStyle name="jaopqgyg_Alternate" xfId="2"/>
+    <cellStyle name="dxlafuc2" xfId="3"/>
+    <cellStyle name="dxlafuc2_Alternate" xfId="4"/>
+    <cellStyle name="lcba33vc" xfId="5"/>
+    <cellStyle name="lcba33vc_Alternate" xfId="6"/>
+    <cellStyle name="gdckraon" xfId="7"/>
+    <cellStyle name="gdckraon_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-21/Sample-21.xlsx
@@ -144,14 +144,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="jaopqgyg" xfId="1"/>
-    <cellStyle name="jaopqgyg_Alternate" xfId="2"/>
-    <cellStyle name="dxlafuc2" xfId="3"/>
-    <cellStyle name="dxlafuc2_Alternate" xfId="4"/>
-    <cellStyle name="lcba33vc" xfId="5"/>
-    <cellStyle name="lcba33vc_Alternate" xfId="6"/>
-    <cellStyle name="gdckraon" xfId="7"/>
-    <cellStyle name="gdckraon_Alternate" xfId="8"/>
+    <cellStyle name="ybquwuds" xfId="1"/>
+    <cellStyle name="ybquwuds_Alternate" xfId="2"/>
+    <cellStyle name="cpchhakw" xfId="3"/>
+    <cellStyle name="cpchhakw_Alternate" xfId="4"/>
+    <cellStyle name="vnmcv5cs" xfId="5"/>
+    <cellStyle name="vnmcv5cs_Alternate" xfId="6"/>
+    <cellStyle name="mpqduu0b" xfId="7"/>
+    <cellStyle name="mpqduu0b_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
